--- a/po_analysis_by_asin/B0927BQT33_po_data.xlsx
+++ b/po_analysis_by_asin/B0927BQT33_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>405</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
@@ -540,49 +540,393 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>406</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -597,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,41 +963,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>663</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>450</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>183</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>504</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>2</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0927BQT33_po_data.xlsx
+++ b/po_analysis_by_asin/B0927BQT33_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -957,7 +958,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1095,6 +1096,999 @@
       </c>
       <c r="B18" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-79.59919771976773</v>
+      </c>
+      <c r="D2" t="n">
+        <v>162.4452174768289</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-82.7527710467366</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.2477223307118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>46</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-76.19317008986825</v>
+      </c>
+      <c r="D4" t="n">
+        <v>175.1088933003913</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-68.89886435431451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.0410349680942</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-78.12342226910795</v>
+      </c>
+      <c r="D6" t="n">
+        <v>160.6413640088989</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>48</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-74.31617227844831</v>
+      </c>
+      <c r="D7" t="n">
+        <v>172.8311301347685</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-86.64523405892116</v>
+      </c>
+      <c r="D8" t="n">
+        <v>167.4066288286201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-75.9653212869251</v>
+      </c>
+      <c r="D9" t="n">
+        <v>174.5090119502429</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-68.51427144092204</v>
+      </c>
+      <c r="D10" t="n">
+        <v>171.7840803090415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>52</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-75.94894843240681</v>
+      </c>
+      <c r="D11" t="n">
+        <v>182.5025797764804</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>53</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-78.14299427223429</v>
+      </c>
+      <c r="D12" t="n">
+        <v>185.8343409744992</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-71.75616337605913</v>
+      </c>
+      <c r="D13" t="n">
+        <v>193.5130280953751</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-75.20943151389658</v>
+      </c>
+      <c r="D14" t="n">
+        <v>182.8873675861713</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-78.21896973189456</v>
+      </c>
+      <c r="D15" t="n">
+        <v>184.5392848986499</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-66.26257290025468</v>
+      </c>
+      <c r="D16" t="n">
+        <v>187.2875895001453</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>59</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-69.50755617269952</v>
+      </c>
+      <c r="D17" t="n">
+        <v>186.4206298599495</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-72.47668882360573</v>
+      </c>
+      <c r="D18" t="n">
+        <v>185.1129937928795</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-67.7513165278631</v>
+      </c>
+      <c r="D19" t="n">
+        <v>193.1138871251435</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>61</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-72.07152986346254</v>
+      </c>
+      <c r="D20" t="n">
+        <v>188.2508836673094</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>62</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-67.49553846567591</v>
+      </c>
+      <c r="D21" t="n">
+        <v>184.7585478754652</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>63</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-56.17422317483339</v>
+      </c>
+      <c r="D22" t="n">
+        <v>191.3033894090431</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>65</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-67.05630224854617</v>
+      </c>
+      <c r="D23" t="n">
+        <v>191.8505411496968</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>66</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-52.72519421635727</v>
+      </c>
+      <c r="D24" t="n">
+        <v>191.9518080349979</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>66</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-72.35608548212258</v>
+      </c>
+      <c r="D25" t="n">
+        <v>194.0169561339338</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>67</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-55.58325779624388</v>
+      </c>
+      <c r="D26" t="n">
+        <v>194.1209800225691</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>68</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-54.00197183938019</v>
+      </c>
+      <c r="D27" t="n">
+        <v>189.2966519455513</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>69</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-54.51214835440103</v>
+      </c>
+      <c r="D28" t="n">
+        <v>202.3658003153255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>69</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-57.37189824750125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>200.651449888303</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>70</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-58.36444988599768</v>
+      </c>
+      <c r="D30" t="n">
+        <v>210.6462810521406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>71</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-54.54776137912405</v>
+      </c>
+      <c r="D31" t="n">
+        <v>195.0363597766564</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-57.14392746460067</v>
+      </c>
+      <c r="D32" t="n">
+        <v>206.9437691063589</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>72</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-57.82143261264149</v>
+      </c>
+      <c r="D33" t="n">
+        <v>196.2033710493013</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>73</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-67.50432695972604</v>
+      </c>
+      <c r="D34" t="n">
+        <v>199.1776404464302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>74</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-59.397345491158</v>
+      </c>
+      <c r="D35" t="n">
+        <v>199.6635634532679</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-52.73476249925078</v>
+      </c>
+      <c r="D36" t="n">
+        <v>202.9289398778743</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-52.51137322975383</v>
+      </c>
+      <c r="D37" t="n">
+        <v>197.4040116625016</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>76</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-47.29246350350049</v>
+      </c>
+      <c r="D38" t="n">
+        <v>207.5437051794926</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>77</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-51.94795369603182</v>
+      </c>
+      <c r="D39" t="n">
+        <v>196.1043609766904</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>78</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-48.92933545933506</v>
+      </c>
+      <c r="D40" t="n">
+        <v>210.6079191267647</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>78</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-48.74176717616589</v>
+      </c>
+      <c r="D41" t="n">
+        <v>205.7505104984787</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>79</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-47.76229670007061</v>
+      </c>
+      <c r="D42" t="n">
+        <v>201.5357125861773</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>80</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-44.32051880090506</v>
+      </c>
+      <c r="D43" t="n">
+        <v>212.8664870848117</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>81</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-49.69793798396405</v>
+      </c>
+      <c r="D44" t="n">
+        <v>220.2380456846464</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>83</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-33.78792774570402</v>
+      </c>
+      <c r="D45" t="n">
+        <v>206.4403340723356</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>84</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-41.76521648956188</v>
+      </c>
+      <c r="D46" t="n">
+        <v>201.402550584022</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>84</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-54.98989479973734</v>
+      </c>
+      <c r="D47" t="n">
+        <v>214.4131690265312</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>85</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-46.08453527294442</v>
+      </c>
+      <c r="D48" t="n">
+        <v>213.7749806572076</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>86</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-39.38117220913886</v>
+      </c>
+      <c r="D49" t="n">
+        <v>211.1019224551847</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>87</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-42.05124452789718</v>
+      </c>
+      <c r="D50" t="n">
+        <v>220.1425625963277</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>88</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-42.21841625354669</v>
+      </c>
+      <c r="D51" t="n">
+        <v>210.7216467400953</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>88</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-43.82367315546998</v>
+      </c>
+      <c r="D52" t="n">
+        <v>211.0422714806171</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>89</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-36.89699187414374</v>
+      </c>
+      <c r="D53" t="n">
+        <v>214.1591322827247</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>90</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-40.89058027955518</v>
+      </c>
+      <c r="D54" t="n">
+        <v>207.6990356867475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>91</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-25.56581759095358</v>
+      </c>
+      <c r="D55" t="n">
+        <v>217.2659083499023</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>91</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-35.4497906990868</v>
+      </c>
+      <c r="D56" t="n">
+        <v>216.342052581218</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>92</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-38.15325154560415</v>
+      </c>
+      <c r="D57" t="n">
+        <v>210.8170032124755</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>93</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-39.0199075965044</v>
+      </c>
+      <c r="D58" t="n">
+        <v>219.7156075588463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>94</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-33.00410609764107</v>
+      </c>
+      <c r="D59" t="n">
+        <v>217.8665922292112</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>94</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-30.92763714604952</v>
+      </c>
+      <c r="D60" t="n">
+        <v>228.0718340349763</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>99</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-32.52676366800041</v>
+      </c>
+      <c r="D61" t="n">
+        <v>221.0886257532943</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>100</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-22.76430024658229</v>
+      </c>
+      <c r="D62" t="n">
+        <v>233.0117063752442</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>100</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-23.31043483307737</v>
+      </c>
+      <c r="D63" t="n">
+        <v>223.0901918082794</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>101</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-21.79304994819525</v>
+      </c>
+      <c r="D64" t="n">
+        <v>232.921139730183</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>102</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-25.51700087805548</v>
+      </c>
+      <c r="D65" t="n">
+        <v>225.1846274283136</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>103</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-22.02741934466307</v>
+      </c>
+      <c r="D66" t="n">
+        <v>230.3882033348716</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>103</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-32.59368869105469</v>
+      </c>
+      <c r="D67" t="n">
+        <v>224.622299775634</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>104</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-15.80522294174206</v>
+      </c>
+      <c r="D68" t="n">
+        <v>230.244640182219</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>105</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-19.32986744703818</v>
+      </c>
+      <c r="D69" t="n">
+        <v>237.8517739530035</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0927BQT33_po_data.xlsx
+++ b/po_analysis_by_asin/B0927BQT33_po_data.xlsx
@@ -1109,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,16 +1128,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1146,12 +1136,6 @@
       <c r="B2" t="n">
         <v>44</v>
       </c>
-      <c r="C2" t="n">
-        <v>-79.59919771976773</v>
-      </c>
-      <c r="D2" t="n">
-        <v>162.4452174768289</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1160,12 +1144,6 @@
       <c r="B3" t="n">
         <v>44</v>
       </c>
-      <c r="C3" t="n">
-        <v>-82.7527710467366</v>
-      </c>
-      <c r="D3" t="n">
-        <v>165.2477223307118</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1174,12 +1152,6 @@
       <c r="B4" t="n">
         <v>46</v>
       </c>
-      <c r="C4" t="n">
-        <v>-76.19317008986825</v>
-      </c>
-      <c r="D4" t="n">
-        <v>175.1088933003913</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1188,12 +1160,6 @@
       <c r="B5" t="n">
         <v>47</v>
       </c>
-      <c r="C5" t="n">
-        <v>-68.89886435431451</v>
-      </c>
-      <c r="D5" t="n">
-        <v>178.0410349680942</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1202,12 +1168,6 @@
       <c r="B6" t="n">
         <v>48</v>
       </c>
-      <c r="C6" t="n">
-        <v>-78.12342226910795</v>
-      </c>
-      <c r="D6" t="n">
-        <v>160.6413640088989</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1216,12 +1176,6 @@
       <c r="B7" t="n">
         <v>48</v>
       </c>
-      <c r="C7" t="n">
-        <v>-74.31617227844831</v>
-      </c>
-      <c r="D7" t="n">
-        <v>172.8311301347685</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1230,12 +1184,6 @@
       <c r="B8" t="n">
         <v>49</v>
       </c>
-      <c r="C8" t="n">
-        <v>-86.64523405892116</v>
-      </c>
-      <c r="D8" t="n">
-        <v>167.4066288286201</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1244,12 +1192,6 @@
       <c r="B9" t="n">
         <v>50</v>
       </c>
-      <c r="C9" t="n">
-        <v>-75.9653212869251</v>
-      </c>
-      <c r="D9" t="n">
-        <v>174.5090119502429</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1258,12 +1200,6 @@
       <c r="B10" t="n">
         <v>51</v>
       </c>
-      <c r="C10" t="n">
-        <v>-68.51427144092204</v>
-      </c>
-      <c r="D10" t="n">
-        <v>171.7840803090415</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1272,12 +1208,6 @@
       <c r="B11" t="n">
         <v>52</v>
       </c>
-      <c r="C11" t="n">
-        <v>-75.94894843240681</v>
-      </c>
-      <c r="D11" t="n">
-        <v>182.5025797764804</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1286,12 +1216,6 @@
       <c r="B12" t="n">
         <v>53</v>
       </c>
-      <c r="C12" t="n">
-        <v>-78.14299427223429</v>
-      </c>
-      <c r="D12" t="n">
-        <v>185.8343409744992</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1300,12 +1224,6 @@
       <c r="B13" t="n">
         <v>55</v>
       </c>
-      <c r="C13" t="n">
-        <v>-71.75616337605913</v>
-      </c>
-      <c r="D13" t="n">
-        <v>193.5130280953751</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1314,12 +1232,6 @@
       <c r="B14" t="n">
         <v>57</v>
       </c>
-      <c r="C14" t="n">
-        <v>-75.20943151389658</v>
-      </c>
-      <c r="D14" t="n">
-        <v>182.8873675861713</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1328,12 +1240,6 @@
       <c r="B15" t="n">
         <v>57</v>
       </c>
-      <c r="C15" t="n">
-        <v>-78.21896973189456</v>
-      </c>
-      <c r="D15" t="n">
-        <v>184.5392848986499</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1342,12 +1248,6 @@
       <c r="B16" t="n">
         <v>58</v>
       </c>
-      <c r="C16" t="n">
-        <v>-66.26257290025468</v>
-      </c>
-      <c r="D16" t="n">
-        <v>187.2875895001453</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1356,12 +1256,6 @@
       <c r="B17" t="n">
         <v>59</v>
       </c>
-      <c r="C17" t="n">
-        <v>-69.50755617269952</v>
-      </c>
-      <c r="D17" t="n">
-        <v>186.4206298599495</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1370,12 +1264,6 @@
       <c r="B18" t="n">
         <v>60</v>
       </c>
-      <c r="C18" t="n">
-        <v>-72.47668882360573</v>
-      </c>
-      <c r="D18" t="n">
-        <v>185.1129937928795</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1384,12 +1272,6 @@
       <c r="B19" t="n">
         <v>60</v>
       </c>
-      <c r="C19" t="n">
-        <v>-67.7513165278631</v>
-      </c>
-      <c r="D19" t="n">
-        <v>193.1138871251435</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1398,12 +1280,6 @@
       <c r="B20" t="n">
         <v>61</v>
       </c>
-      <c r="C20" t="n">
-        <v>-72.07152986346254</v>
-      </c>
-      <c r="D20" t="n">
-        <v>188.2508836673094</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1412,12 +1288,6 @@
       <c r="B21" t="n">
         <v>62</v>
       </c>
-      <c r="C21" t="n">
-        <v>-67.49553846567591</v>
-      </c>
-      <c r="D21" t="n">
-        <v>184.7585478754652</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1426,12 +1296,6 @@
       <c r="B22" t="n">
         <v>63</v>
       </c>
-      <c r="C22" t="n">
-        <v>-56.17422317483339</v>
-      </c>
-      <c r="D22" t="n">
-        <v>191.3033894090431</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1440,12 +1304,6 @@
       <c r="B23" t="n">
         <v>65</v>
       </c>
-      <c r="C23" t="n">
-        <v>-67.05630224854617</v>
-      </c>
-      <c r="D23" t="n">
-        <v>191.8505411496968</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1454,12 +1312,6 @@
       <c r="B24" t="n">
         <v>66</v>
       </c>
-      <c r="C24" t="n">
-        <v>-52.72519421635727</v>
-      </c>
-      <c r="D24" t="n">
-        <v>191.9518080349979</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1468,12 +1320,6 @@
       <c r="B25" t="n">
         <v>66</v>
       </c>
-      <c r="C25" t="n">
-        <v>-72.35608548212258</v>
-      </c>
-      <c r="D25" t="n">
-        <v>194.0169561339338</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1482,12 +1328,6 @@
       <c r="B26" t="n">
         <v>67</v>
       </c>
-      <c r="C26" t="n">
-        <v>-55.58325779624388</v>
-      </c>
-      <c r="D26" t="n">
-        <v>194.1209800225691</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1496,12 +1336,6 @@
       <c r="B27" t="n">
         <v>68</v>
       </c>
-      <c r="C27" t="n">
-        <v>-54.00197183938019</v>
-      </c>
-      <c r="D27" t="n">
-        <v>189.2966519455513</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1510,12 +1344,6 @@
       <c r="B28" t="n">
         <v>69</v>
       </c>
-      <c r="C28" t="n">
-        <v>-54.51214835440103</v>
-      </c>
-      <c r="D28" t="n">
-        <v>202.3658003153255</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1524,12 +1352,6 @@
       <c r="B29" t="n">
         <v>69</v>
       </c>
-      <c r="C29" t="n">
-        <v>-57.37189824750125</v>
-      </c>
-      <c r="D29" t="n">
-        <v>200.651449888303</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1538,12 +1360,6 @@
       <c r="B30" t="n">
         <v>70</v>
       </c>
-      <c r="C30" t="n">
-        <v>-58.36444988599768</v>
-      </c>
-      <c r="D30" t="n">
-        <v>210.6462810521406</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1552,12 +1368,6 @@
       <c r="B31" t="n">
         <v>71</v>
       </c>
-      <c r="C31" t="n">
-        <v>-54.54776137912405</v>
-      </c>
-      <c r="D31" t="n">
-        <v>195.0363597766564</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1566,12 +1376,6 @@
       <c r="B32" t="n">
         <v>72</v>
       </c>
-      <c r="C32" t="n">
-        <v>-57.14392746460067</v>
-      </c>
-      <c r="D32" t="n">
-        <v>206.9437691063589</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1580,12 +1384,6 @@
       <c r="B33" t="n">
         <v>72</v>
       </c>
-      <c r="C33" t="n">
-        <v>-57.82143261264149</v>
-      </c>
-      <c r="D33" t="n">
-        <v>196.2033710493013</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1594,12 +1392,6 @@
       <c r="B34" t="n">
         <v>73</v>
       </c>
-      <c r="C34" t="n">
-        <v>-67.50432695972604</v>
-      </c>
-      <c r="D34" t="n">
-        <v>199.1776404464302</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1608,12 +1400,6 @@
       <c r="B35" t="n">
         <v>74</v>
       </c>
-      <c r="C35" t="n">
-        <v>-59.397345491158</v>
-      </c>
-      <c r="D35" t="n">
-        <v>199.6635634532679</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1622,12 +1408,6 @@
       <c r="B36" t="n">
         <v>75</v>
       </c>
-      <c r="C36" t="n">
-        <v>-52.73476249925078</v>
-      </c>
-      <c r="D36" t="n">
-        <v>202.9289398778743</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1636,12 +1416,6 @@
       <c r="B37" t="n">
         <v>75</v>
       </c>
-      <c r="C37" t="n">
-        <v>-52.51137322975383</v>
-      </c>
-      <c r="D37" t="n">
-        <v>197.4040116625016</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1650,12 +1424,6 @@
       <c r="B38" t="n">
         <v>76</v>
       </c>
-      <c r="C38" t="n">
-        <v>-47.29246350350049</v>
-      </c>
-      <c r="D38" t="n">
-        <v>207.5437051794926</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1664,12 +1432,6 @@
       <c r="B39" t="n">
         <v>77</v>
       </c>
-      <c r="C39" t="n">
-        <v>-51.94795369603182</v>
-      </c>
-      <c r="D39" t="n">
-        <v>196.1043609766904</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1678,12 +1440,6 @@
       <c r="B40" t="n">
         <v>78</v>
       </c>
-      <c r="C40" t="n">
-        <v>-48.92933545933506</v>
-      </c>
-      <c r="D40" t="n">
-        <v>210.6079191267647</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1692,12 +1448,6 @@
       <c r="B41" t="n">
         <v>78</v>
       </c>
-      <c r="C41" t="n">
-        <v>-48.74176717616589</v>
-      </c>
-      <c r="D41" t="n">
-        <v>205.7505104984787</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1706,12 +1456,6 @@
       <c r="B42" t="n">
         <v>79</v>
       </c>
-      <c r="C42" t="n">
-        <v>-47.76229670007061</v>
-      </c>
-      <c r="D42" t="n">
-        <v>201.5357125861773</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1720,12 +1464,6 @@
       <c r="B43" t="n">
         <v>80</v>
       </c>
-      <c r="C43" t="n">
-        <v>-44.32051880090506</v>
-      </c>
-      <c r="D43" t="n">
-        <v>212.8664870848117</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1734,12 +1472,6 @@
       <c r="B44" t="n">
         <v>81</v>
       </c>
-      <c r="C44" t="n">
-        <v>-49.69793798396405</v>
-      </c>
-      <c r="D44" t="n">
-        <v>220.2380456846464</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1748,12 +1480,6 @@
       <c r="B45" t="n">
         <v>83</v>
       </c>
-      <c r="C45" t="n">
-        <v>-33.78792774570402</v>
-      </c>
-      <c r="D45" t="n">
-        <v>206.4403340723356</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1762,12 +1488,6 @@
       <c r="B46" t="n">
         <v>84</v>
       </c>
-      <c r="C46" t="n">
-        <v>-41.76521648956188</v>
-      </c>
-      <c r="D46" t="n">
-        <v>201.402550584022</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1776,12 +1496,6 @@
       <c r="B47" t="n">
         <v>84</v>
       </c>
-      <c r="C47" t="n">
-        <v>-54.98989479973734</v>
-      </c>
-      <c r="D47" t="n">
-        <v>214.4131690265312</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1790,12 +1504,6 @@
       <c r="B48" t="n">
         <v>85</v>
       </c>
-      <c r="C48" t="n">
-        <v>-46.08453527294442</v>
-      </c>
-      <c r="D48" t="n">
-        <v>213.7749806572076</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1804,12 +1512,6 @@
       <c r="B49" t="n">
         <v>86</v>
       </c>
-      <c r="C49" t="n">
-        <v>-39.38117220913886</v>
-      </c>
-      <c r="D49" t="n">
-        <v>211.1019224551847</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1818,12 +1520,6 @@
       <c r="B50" t="n">
         <v>87</v>
       </c>
-      <c r="C50" t="n">
-        <v>-42.05124452789718</v>
-      </c>
-      <c r="D50" t="n">
-        <v>220.1425625963277</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1832,12 +1528,6 @@
       <c r="B51" t="n">
         <v>88</v>
       </c>
-      <c r="C51" t="n">
-        <v>-42.21841625354669</v>
-      </c>
-      <c r="D51" t="n">
-        <v>210.7216467400953</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1846,12 +1536,6 @@
       <c r="B52" t="n">
         <v>88</v>
       </c>
-      <c r="C52" t="n">
-        <v>-43.82367315546998</v>
-      </c>
-      <c r="D52" t="n">
-        <v>211.0422714806171</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1860,12 +1544,6 @@
       <c r="B53" t="n">
         <v>89</v>
       </c>
-      <c r="C53" t="n">
-        <v>-36.89699187414374</v>
-      </c>
-      <c r="D53" t="n">
-        <v>214.1591322827247</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1874,12 +1552,6 @@
       <c r="B54" t="n">
         <v>90</v>
       </c>
-      <c r="C54" t="n">
-        <v>-40.89058027955518</v>
-      </c>
-      <c r="D54" t="n">
-        <v>207.6990356867475</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1888,12 +1560,6 @@
       <c r="B55" t="n">
         <v>91</v>
       </c>
-      <c r="C55" t="n">
-        <v>-25.56581759095358</v>
-      </c>
-      <c r="D55" t="n">
-        <v>217.2659083499023</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1902,12 +1568,6 @@
       <c r="B56" t="n">
         <v>91</v>
       </c>
-      <c r="C56" t="n">
-        <v>-35.4497906990868</v>
-      </c>
-      <c r="D56" t="n">
-        <v>216.342052581218</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1916,12 +1576,6 @@
       <c r="B57" t="n">
         <v>92</v>
       </c>
-      <c r="C57" t="n">
-        <v>-38.15325154560415</v>
-      </c>
-      <c r="D57" t="n">
-        <v>210.8170032124755</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1930,12 +1584,6 @@
       <c r="B58" t="n">
         <v>93</v>
       </c>
-      <c r="C58" t="n">
-        <v>-39.0199075965044</v>
-      </c>
-      <c r="D58" t="n">
-        <v>219.7156075588463</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1944,12 +1592,6 @@
       <c r="B59" t="n">
         <v>94</v>
       </c>
-      <c r="C59" t="n">
-        <v>-33.00410609764107</v>
-      </c>
-      <c r="D59" t="n">
-        <v>217.8665922292112</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1958,12 +1600,6 @@
       <c r="B60" t="n">
         <v>94</v>
       </c>
-      <c r="C60" t="n">
-        <v>-30.92763714604952</v>
-      </c>
-      <c r="D60" t="n">
-        <v>228.0718340349763</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1972,12 +1608,6 @@
       <c r="B61" t="n">
         <v>99</v>
       </c>
-      <c r="C61" t="n">
-        <v>-32.52676366800041</v>
-      </c>
-      <c r="D61" t="n">
-        <v>221.0886257532943</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1986,12 +1616,6 @@
       <c r="B62" t="n">
         <v>100</v>
       </c>
-      <c r="C62" t="n">
-        <v>-22.76430024658229</v>
-      </c>
-      <c r="D62" t="n">
-        <v>233.0117063752442</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2000,12 +1624,6 @@
       <c r="B63" t="n">
         <v>100</v>
       </c>
-      <c r="C63" t="n">
-        <v>-23.31043483307737</v>
-      </c>
-      <c r="D63" t="n">
-        <v>223.0901918082794</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2014,12 +1632,6 @@
       <c r="B64" t="n">
         <v>101</v>
       </c>
-      <c r="C64" t="n">
-        <v>-21.79304994819525</v>
-      </c>
-      <c r="D64" t="n">
-        <v>232.921139730183</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2028,12 +1640,6 @@
       <c r="B65" t="n">
         <v>102</v>
       </c>
-      <c r="C65" t="n">
-        <v>-25.51700087805548</v>
-      </c>
-      <c r="D65" t="n">
-        <v>225.1846274283136</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2042,12 +1648,6 @@
       <c r="B66" t="n">
         <v>103</v>
       </c>
-      <c r="C66" t="n">
-        <v>-22.02741934466307</v>
-      </c>
-      <c r="D66" t="n">
-        <v>230.3882033348716</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2056,12 +1656,6 @@
       <c r="B67" t="n">
         <v>103</v>
       </c>
-      <c r="C67" t="n">
-        <v>-32.59368869105469</v>
-      </c>
-      <c r="D67" t="n">
-        <v>224.622299775634</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2070,12 +1664,6 @@
       <c r="B68" t="n">
         <v>104</v>
       </c>
-      <c r="C68" t="n">
-        <v>-15.80522294174206</v>
-      </c>
-      <c r="D68" t="n">
-        <v>230.244640182219</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2083,12 +1671,6 @@
       </c>
       <c r="B69" t="n">
         <v>105</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-19.32986744703818</v>
-      </c>
-      <c r="D69" t="n">
-        <v>237.8517739530035</v>
       </c>
     </row>
   </sheetData>
